--- a/STK 2022-23/STK - vykres02 - výkaz výstuže.xlsx
+++ b/STK 2022-23/STK - vykres02 - výkaz výstuže.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Saves\AutoCAD\STK 2022-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A503F94-3183-40EC-A996-A5DC11043F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700EBC8F-4ACC-425E-A043-457DA044BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA6DDB32-DA49-4474-911C-6A1F0423B98B}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -136,15 +136,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -189,6 +180,43 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -196,60 +224,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,34 +620,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.5546875" style="2"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="15.5546875" style="2"/>
+    <col min="1" max="5" width="15.5546875" style="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -610,153 +656,153 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2.8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>C3*D3</f>
         <v>56</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>F3*E3</f>
         <v>156.79999999999998</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.97</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>C4*D4*2</f>
         <v>112</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>F4*E4</f>
         <v>108.64</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="21">
         <v>4.8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <f>F5*E5</f>
         <v>52.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f>G3+G4</f>
         <v>265.44</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f>H5</f>
         <v>52.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>0.222</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f>G6*G7</f>
         <v>104.8488</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f>H6*H7</f>
         <v>11.721599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="16" t="str">

--- a/STK 2022-23/STK - vykres02 - výkaz výstuže.xlsx
+++ b/STK 2022-23/STK - vykres02 - výkaz výstuže.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Saves\AutoCAD\STK 2022-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700EBC8F-4ACC-425E-A043-457DA044BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DF1EE5-9354-472B-BCD0-A16F60D3A090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA6DDB32-DA49-4474-911C-6A1F0423B98B}"/>
   </bookViews>
@@ -250,13 +250,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -280,22 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,36 +626,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
@@ -680,19 +680,19 @@
         <v>2.8</v>
       </c>
       <c r="F3" s="1">
-        <f>C3*D3</f>
-        <v>56</v>
+        <f>ROUNDUP(D3*E5,0)</f>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
         <f>F3*E3</f>
-        <v>156.79999999999998</v>
+        <v>95.199999999999989</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -703,22 +703,22 @@
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="F4" s="1">
-        <f>C4*D4*2</f>
-        <v>112</v>
+        <f>F3*2</f>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <f>F4*E4</f>
-        <v>108.64</v>
+        <v>59.16</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -728,34 +728,34 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="11">
         <v>4.8</v>
       </c>
       <c r="F5" s="6">
         <v>11</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="10">
         <f>F5*E5</f>
         <v>52.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2">
         <f>G3+G4</f>
-        <v>265.44</v>
+        <v>154.35999999999999</v>
       </c>
       <c r="H6" s="4">
         <f>H5</f>
@@ -763,11 +763,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
@@ -779,17 +779,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
         <f>G6*G7</f>
-        <v>104.8488</v>
+        <v>60.972199999999994</v>
       </c>
       <c r="H8" s="5">
         <f>H6*H7</f>
@@ -797,19 +797,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="21" t="str">
         <f>G8+H8&amp;" = "&amp;ROUND(G8+H8,0)</f>
-        <v>116.5704 = 117</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>72.6938 = 73</v>
+      </c>
+      <c r="H9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
